--- a/seed_data/goiSeed.xlsx
+++ b/seed_data/goiSeed.xlsx
@@ -5,37 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8ec6da2946e4b6/Documents/School/Year Five/Final Year Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bushie\Desktop\Projects\ogc-features-server\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC10483B711D65505ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEF62CF-28A9-495E-8E12-21D56FDE9CB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B6E1E6-A227-4D09-B5B7-56D8B6DD3FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goi" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>militant</t>
   </si>
@@ -155,6 +145,57 @@
   </si>
   <si>
     <t>Wagner PMC</t>
+  </si>
+  <si>
+    <t>Houthi Rebels</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Coalition of Patriots for Change (CPC)</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Oath Keepers</t>
+  </si>
+  <si>
+    <t>The New Irish Republican Army</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Ahl al-Marouf</t>
+  </si>
+  <si>
+    <t>Palestenian extremists</t>
+  </si>
+  <si>
+    <t>Khorasan Chapter of the Islamic State</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Central Africa Province of the Islamic State</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Kachin Independence Army (KIA)</t>
+  </si>
+  <si>
+    <t>MMR</t>
   </si>
 </sst>
 </file>
@@ -197,9 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,16 +522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7B77B-D544-4B79-9242-8319007D999A}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,8 +556,8 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>95cb9494-2fd1-066e-21e1-5b3000ed75a6</v>
+        <f t="shared" ref="B2:B30" ca="1" si="0">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>2239e936-40a6-edd9-82aa-0efaf055cac1</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -529,8 +571,8 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>c457da5a-5231-4ad7-740a-7329c08b3e19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>085733b2-c926-754e-1a77-f83dc9077399</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -544,8 +586,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>60379479-7311-52ff-a4a1-c030862443fc</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7099b7a9-be6d-dbf8-8457-c15915a69b02</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -559,8 +601,8 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d32aec08-a281-383a-d7f0-bacc584d2fd3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6461574a-beb0-ebfc-67b8-3d1bd020b2ed</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -574,8 +616,8 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f9273b45-cea9-350c-51ae-baa60e1311cc</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24ea5c79-0256-0c6c-789b-61d531148d7d</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -589,8 +631,8 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>736836b4-80be-190f-0304-c4b734701138</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52664893-18b2-eba9-d717-97dc4b674cab</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -604,8 +646,8 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8cdacbc4-893c-6a03-8ef4-0d4efee2a7be</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -619,8 +661,8 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d23eb9ef-c93c-4692-aa6b-efa4eff77ad0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68250d29-cda9-3439-1f49-f2b133cebb3b</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -634,8 +676,8 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>99d053e9-a801-6db8-8adc-0532c63075f6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>f323f29a-8fdc-25b7-4eee-d7cfd6cf81b8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -649,8 +691,8 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>fd0f092a-643a-d550-9397-b2b83059359d</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9d846254-6e48-1d7e-eca0-e433c234f16e</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -664,8 +706,8 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>b644a3df-ab0e-ee30-e77e-d2e85f18f4b0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41318e13-5c52-1774-3834-6fe86fc9ca16</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -679,8 +721,8 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>91b41343-664c-d730-dfdc-657d2339362f</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4e1ac367-80fe-a594-acf3-f5da3165f462</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -694,8 +736,8 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>815b8db4-0168-2711-6a0e-b7b20edfba86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>cc218764-7af2-29c1-81fe-21ea26082cef</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -709,8 +751,8 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>2d1ec692-772c-aea2-3d2d-c54c779d3908</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>e1f5621e-d82c-a176-0fc0-13991497c907</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -724,8 +766,8 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4ec2cb44-94b3-1dbe-f723-2fb7f5555694</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>f0f70946-7e59-30cf-1b4a-ec48a740bda6</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -739,8 +781,8 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>33a0e9e1-db01-1f2e-c89b-a63addf1b199</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9e08ed61-17de-7407-7a58-54eeeb25d730</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -754,8 +796,8 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>123a166e-28eb-f795-b202-2436e3b9ec64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>c9697b30-da10-22df-4a21-0c9722bb704e</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -769,8 +811,8 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>bc827d4c-5ad6-54ac-8c52-35ee861f21e9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>a4bd0ce0-7e33-504d-f0f3-9815addf7fb6</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -784,8 +826,8 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0294c10c-762d-ea8b-7eaa-2da7f3df4d5c</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35ddd6b5-54ef-05f1-32b3-e938b38cf5b1</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -799,8 +841,14 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>11865319-db28-681c-17a0-a4fe2fd927e3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9b4aae78-c7fe-cac3-fe49-b945ff12157c</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,8 +856,14 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f49db2e3-be22-e526-b1c2-86193f1bea99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>071e7d5e-1bd6-2c25-81c5-db54ecb7964d</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,8 +871,14 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>52f31a56-d0a3-37d2-1e26-346f884266f3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61ef056f-ca76-1f60-46a2-d4b15a9e3020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,8 +886,14 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6f91d5cb-db1c-8ab3-2bcb-3d7acc2490a9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93f8fb40-1322-b0c3-1f38-ecdccb0c5ea4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,8 +901,14 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>83d5e67c-5cec-ac3f-dafc-646b1f76172f</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1b268921-75df-7a8f-dd80-200ef85864bb</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>9080f92c-f56a-4864-8efe-622333653624</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78d418ea-ec60-adcf-e236-ae18709c63ea</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,8 +931,14 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>5200ca42-61dc-7267-ec6f-65ea8e2b6abc</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2fcb19c4-2ee2-fa23-e6d2-c81ab86f2303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,8 +946,14 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>7f4769a5-e41f-6d96-c143-9593121b049c</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3d34263e-5569-9fcc-030c-4078d8b21265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>3bb16c9e-6d0f-0d1c-f3ce-0d0c32931282</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>e2f39cf8-e73b-8c3e-9fcb-893ee52cf643</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,170 +976,14 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>232ad05e-173f-cb12-6efe-dccb56c3443c</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4a7f3412-d17d-5ae0-ba9f-3ee704a4c3ab</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>b4d89c88-fdbe-6335-4a2c-cc9ffd7f2f3e</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>c31958ba-bdf7-9f28-bc1c-c52b1995775f</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>22526cb7-4b96-a580-fcfd-a100540794ff</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>47881275-69e1-aa21-98ee-55f52f865b2e</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>62c154e2-fdf8-849f-1f4f-6d1cadf5a447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>b71095ce-e42e-8dbc-15a0-efd0f63935d9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d94ba787-05bf-5774-3ef3-adc27de798b1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>a7a83ea6-84ac-f9c4-a0f6-28ceab027c96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>1c244ccb-fb65-a7ba-58d9-2e522ac91381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>207173a2-4a88-f7d9-7ec8-795950403ed7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6e037534-95e2-f166-1127-f1f61901b55d</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>77e5caf6-1726-a07b-dd05-f8da3d4e51cc</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6be68e09-9fd6-97b0-f4a4-24ad3c93ca76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4da4e805-537b-048e-fb15-5da580ea4e6b</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d700b42d-66d0-1fa8-f041-a96c1fcd89cc</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>3f7ccd53-8212-0d65-b89f-86f7a839d035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>fb7f5dab-17ed-5157-b337-e958df970bbe</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>b1bfa127-a1a6-7266-46bf-fe0407d7e719</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
